--- a/experiment_results/SBFL_ONLY/chart/top_n.xlsx
+++ b/experiment_results/SBFL_ONLY/chart/top_n.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tuanngokien/Desktop/Software_Analysis/configurable_system/InputPreparation/experiment_results/SBFL_ONLY/chart/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8B67C87-EF24-244F-8666-B32E32033CFC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1B1292B-64F7-864F-B7F7-E2083D7D50E1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38400" yWindow="460" windowWidth="38400" windowHeight="21140" activeTab="3" xr2:uid="{B4C4D39E-2638-224B-9900-4EB172804E7A}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="top_n_single_bug" sheetId="1" r:id="rId3"/>
     <sheet name="top_n_multiple_bugs" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -533,7 +533,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>11</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>35</c:v>
@@ -542,7 +542,7 @@
                   <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>78</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1</c:v>
@@ -1163,19 +1163,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>234</c:v>
+                  <c:v>207</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>701</c:v>
+                  <c:v>637</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1159</c:v>
+                  <c:v>1001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1287</c:v>
+                  <c:v>1096</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1324</c:v>
+                  <c:v>1126</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3915,7 +3915,7 @@
   <dimension ref="A3:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3980,7 +3980,7 @@
   <dimension ref="A3:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="X13" sqref="X13"/>
+      <selection activeCell="V13" sqref="V13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4010,7 +4010,7 @@
         <v>0</v>
       </c>
       <c r="B4">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="C4">
         <v>35</v>
@@ -4019,7 +4019,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="2">
-        <v>78</v>
+        <v>26</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -4045,7 +4045,7 @@
   <dimension ref="A3:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4104,7 +4104,7 @@
   <dimension ref="A3:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4131,19 +4131,19 @@
         <v>0</v>
       </c>
       <c r="B4">
-        <v>234</v>
+        <v>207</v>
       </c>
       <c r="C4">
-        <v>701</v>
+        <v>637</v>
       </c>
       <c r="D4">
-        <v>1159</v>
+        <v>1001</v>
       </c>
       <c r="E4">
-        <v>1287</v>
+        <v>1096</v>
       </c>
       <c r="F4">
-        <v>1324</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
